--- a/src/main/resources/秋招投递记录.xlsx
+++ b/src/main/resources/秋招投递记录.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZQF\note\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
   <si>
     <t>公司名称</t>
   </si>
@@ -41,6 +36,9 @@
     <t>简历状态更新</t>
   </si>
   <si>
+    <t>当前进度</t>
+  </si>
+  <si>
     <t>笔试</t>
   </si>
   <si>
@@ -50,46 +48,136 @@
     <t>备注</t>
   </si>
   <si>
+    <t>微众银行</t>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+  </si>
+  <si>
+    <t>牛客/Moka</t>
+  </si>
+  <si>
+    <t>武汉</t>
+  </si>
+  <si>
+    <t>投递中</t>
+  </si>
+  <si>
+    <t>在线测评(三天内完成)</t>
+  </si>
+  <si>
+    <t>VIVO</t>
+  </si>
+  <si>
+    <t>Java工程师（IT应用方向）</t>
+  </si>
+  <si>
+    <t>牛客/官网</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>在线测评(简历投递截止日期之前完成)</t>
+  </si>
+  <si>
+    <t>https://hr.vivo.com/wt/vivo/web/index/CompvivoIndex</t>
+  </si>
+  <si>
+    <t>度小满科技</t>
+  </si>
+  <si>
+    <t>Java研发工程师-技术体系</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>奇安信</t>
+  </si>
+  <si>
+    <t>服务端开发工程师-Java</t>
+  </si>
+  <si>
+    <t>顺网科技</t>
+  </si>
+  <si>
+    <t>牛客网</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>通过初选</t>
+  </si>
+  <si>
+    <t>后续待企业安排</t>
+  </si>
+  <si>
+    <t>在线测评(8.31失效)</t>
+  </si>
+  <si>
+    <t>老虎集团</t>
+  </si>
+  <si>
+    <t>Java开发工程师(Esop)</t>
+  </si>
+  <si>
+    <t>阳关保险</t>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+  </si>
+  <si>
+    <t>阿里巴巴灵犀互娱</t>
+  </si>
+  <si>
+    <t>研发工程师Java</t>
+  </si>
+  <si>
+    <t>招商局金融科技</t>
+  </si>
+  <si>
+    <t>Soul</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>华人华通</t>
+  </si>
+  <si>
+    <t>云平台软件助理工程师</t>
+  </si>
+  <si>
+    <t>米哈游</t>
+  </si>
+  <si>
+    <t>Java工程师</t>
+  </si>
+  <si>
+    <t>EA China</t>
+  </si>
+  <si>
+    <t>中原银行</t>
+  </si>
+  <si>
+    <t>郑州</t>
+  </si>
+  <si>
+    <t>麦吉太文</t>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+  </si>
+  <si>
     <t>北京爱笔科技有限公司</t>
   </si>
   <si>
-    <t>Java工程师</t>
-  </si>
-  <si>
-    <t>牛客网</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>投递中</t>
-  </si>
-  <si>
-    <t>顺网科技</t>
-  </si>
-  <si>
-    <t>Java开发工程师</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>老虎集团</t>
-  </si>
-  <si>
-    <t>Java开发工程师(Esop)</t>
-  </si>
-  <si>
-    <t>招商局金融科技</t>
-  </si>
-  <si>
-    <t>南京</t>
-  </si>
-  <si>
-    <t>Soul</t>
-  </si>
-  <si>
-    <t>上海</t>
+    <t>被拒</t>
+  </si>
+  <si>
+    <t>终止</t>
   </si>
   <si>
     <t>智己汽车</t>
@@ -98,81 +186,191 @@
     <t>Java开发方向</t>
   </si>
   <si>
-    <t>华人华通</t>
-  </si>
-  <si>
-    <t>云平台软件助理工程师</t>
-  </si>
-  <si>
-    <t>阳关保险</t>
-  </si>
-  <si>
-    <t>软件开发工程师</t>
-  </si>
-  <si>
-    <t>米哈游</t>
-  </si>
-  <si>
-    <t>阿里巴巴灵犀互娱</t>
-  </si>
-  <si>
-    <t>研发工程师Java</t>
-  </si>
-  <si>
     <t>广发证卷</t>
   </si>
   <si>
-    <t>后端开发工程师</t>
-  </si>
-  <si>
     <t>广州</t>
-  </si>
-  <si>
-    <t>EA China</t>
-  </si>
-  <si>
-    <t>中原银行</t>
-  </si>
-  <si>
-    <t>郑州</t>
-  </si>
-  <si>
-    <t>麦吉太文</t>
-  </si>
-  <si>
-    <t>当前进度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +383,206 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -194,104 +590,411 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
@@ -301,27 +1004,27 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A:J" totalsRowShown="0">
   <autoFilter ref="A1:J1048576"/>
+  <sortState ref="A2:J1048576">
+    <sortCondition ref="B1" descending="1"/>
+  </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="公司名称" dataDxfId="8"/>
-    <tableColumn id="2" name="投递时间" dataDxfId="7"/>
-    <tableColumn id="3" name="投递岗位" dataDxfId="6"/>
-    <tableColumn id="10" name="投递渠道"/>
-    <tableColumn id="4" name="工作地点" dataDxfId="5"/>
-    <tableColumn id="5" name="简历状态更新" dataDxfId="4"/>
-    <tableColumn id="9" name="当前进度" dataDxfId="3"/>
-    <tableColumn id="6" name="笔试" dataDxfId="2"/>
-    <tableColumn id="7" name="面试" dataDxfId="1"/>
-    <tableColumn id="8" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" name="公司名称" dataDxfId="0"/>
+    <tableColumn id="2" name="投递时间" dataDxfId="1"/>
+    <tableColumn id="3" name="投递岗位" dataDxfId="2"/>
+    <tableColumn id="10" name="投递渠道" dataDxfId="3"/>
+    <tableColumn id="4" name="工作地点" dataDxfId="4"/>
+    <tableColumn id="5" name="简历状态更新" dataDxfId="5"/>
+    <tableColumn id="9" name="当前进度" dataDxfId="6"/>
+    <tableColumn id="6" name="笔试" dataDxfId="7"/>
+    <tableColumn id="7" name="面试" dataDxfId="8"/>
+    <tableColumn id="8" name="备注" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -608,34 +1311,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="50.375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="29.3796296296296" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.3796296296296" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.8796296296296" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.1111111111111" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.3333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.3333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.8888888888889" style="2" customWidth="1"/>
+    <col min="10" max="10" width="55.7777777777778" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -655,302 +1358,438 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44432</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44432</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44432</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B6" s="3">
         <v>44431</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+    <row r="7" s="1" customFormat="1" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B7" s="3">
         <v>44431</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B8" s="3">
         <v>44431</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B9" s="3">
         <v>44431</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="3">
         <v>44431</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B11" s="3">
         <v>44431</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
+    <row r="12" s="1" customFormat="1" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B12" s="3">
         <v>44431</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B13" s="3">
         <v>44431</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>13</v>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B14" s="3">
         <v>44431</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B15" s="3">
         <v>44431</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="6">
+        <v>44431</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="6">
+        <v>44431</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6">
+        <v>44431</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId2" display="https://hr.vivo.com/wt/vivo/web/index/CompvivoIndex"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -958,29 +1797,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/秋招投递记录.xlsx
+++ b/src/main/resources/秋招投递记录.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZQF\note\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
   <si>
     <t>公司名称</t>
   </si>
@@ -63,9 +68,6 @@
     <t>投递中</t>
   </si>
   <si>
-    <t>在线测评(三天内完成)</t>
-  </si>
-  <si>
     <t>VIVO</t>
   </si>
   <si>
@@ -174,9 +176,6 @@
     <t>北京爱笔科技有限公司</t>
   </si>
   <si>
-    <t>被拒</t>
-  </si>
-  <si>
     <t>终止</t>
   </si>
   <si>
@@ -190,19 +189,29 @@
   </si>
   <si>
     <t>广州</t>
+  </si>
+  <si>
+    <t>通过初选</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.27 晚 20:00--22:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历被拒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +225,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -223,6 +233,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -230,147 +241,19 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,194 +278,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -590,251 +287,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -863,138 +321,91 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <b val="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <b val="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <b val="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
@@ -1004,27 +415,30 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A:J" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0">
   <autoFilter ref="A1:J1048576"/>
   <sortState ref="A2:J1048576">
-    <sortCondition ref="B1" descending="1"/>
+    <sortCondition descending="1" ref="B1"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="公司名称" dataDxfId="0"/>
-    <tableColumn id="2" name="投递时间" dataDxfId="1"/>
-    <tableColumn id="3" name="投递岗位" dataDxfId="2"/>
-    <tableColumn id="10" name="投递渠道" dataDxfId="3"/>
-    <tableColumn id="4" name="工作地点" dataDxfId="4"/>
-    <tableColumn id="5" name="简历状态更新" dataDxfId="5"/>
-    <tableColumn id="9" name="当前进度" dataDxfId="6"/>
-    <tableColumn id="6" name="笔试" dataDxfId="7"/>
-    <tableColumn id="7" name="面试" dataDxfId="8"/>
-    <tableColumn id="8" name="备注" dataDxfId="9"/>
+    <tableColumn id="1" name="公司名称" dataDxfId="9"/>
+    <tableColumn id="2" name="投递时间" dataDxfId="8"/>
+    <tableColumn id="3" name="投递岗位" dataDxfId="7"/>
+    <tableColumn id="10" name="投递渠道" dataDxfId="6"/>
+    <tableColumn id="4" name="工作地点" dataDxfId="5"/>
+    <tableColumn id="5" name="简历状态更新" dataDxfId="4"/>
+    <tableColumn id="9" name="当前进度" dataDxfId="3"/>
+    <tableColumn id="6" name="笔试" dataDxfId="2"/>
+    <tableColumn id="7" name="面试" dataDxfId="1"/>
+    <tableColumn id="8" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1311,34 +725,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.3796296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.3796296296296" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.6296296296296" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.8796296296296" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.1111111111111" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.3333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40.3333333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="30.8888888888889" style="2" customWidth="1"/>
-    <col min="10" max="10" width="55.7777777777778" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="55.75" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1386,86 +800,87 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2"/>
+      <c r="F2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
         <v>44432</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="B4" s="3">
         <v>44432</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>44432</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3">
         <v>44431</v>
@@ -1474,96 +889,96 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="B9" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="B10" s="3">
         <v>44431</v>
@@ -1572,18 +987,18 @@
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3">
         <v>44431</v>
@@ -1592,30 +1007,30 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:10">
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>14</v>
@@ -1625,207 +1040,201 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="3">
         <v>44431</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="6">
+        <v>44431</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" s="6">
-        <v>44431</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="6">
         <v>44431</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="6">
         <v>44431</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId2" display="https://hr.vivo.com/wt/vivo/web/index/CompvivoIndex"/>
+    <hyperlink ref="J3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/秋招投递记录.xlsx
+++ b/src/main/resources/秋招投递记录.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZQF\note\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
   <si>
     <t>公司名称</t>
   </si>
@@ -53,19 +48,79 @@
     <t>备注</t>
   </si>
   <si>
+    <t>广联达集团</t>
+  </si>
+  <si>
+    <t>Java后端开发工程师</t>
+  </si>
+  <si>
+    <t>牛客/Moka</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>投递中</t>
+  </si>
+  <si>
+    <t>天眼查集团</t>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+  </si>
+  <si>
+    <t>服务端开发工程师-Java</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>4399游戏</t>
+  </si>
+  <si>
+    <t>牛客/官网</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>荣耀honor</t>
+  </si>
+  <si>
+    <t>软件开发工程师-互联网软件</t>
+  </si>
+  <si>
+    <t>官网</t>
+  </si>
+  <si>
+    <t>https://career.hihonor.com/SU60eea919bef57c1023f6fe78/pb/account.html#/account</t>
+  </si>
+  <si>
+    <t>招银网络科技</t>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>https://cmbntjob.cmbchina.com/pages/mycenter/default.html</t>
+  </si>
+  <si>
     <t>微众银行</t>
   </si>
   <si>
-    <t>Java开发工程师</t>
-  </si>
-  <si>
-    <t>牛客/Moka</t>
-  </si>
-  <si>
     <t>武汉</t>
   </si>
   <si>
-    <t>投递中</t>
+    <t>通过初选</t>
+  </si>
+  <si>
+    <t>完成笔试</t>
+  </si>
+  <si>
+    <t>8.27 晚 20:00--22:00</t>
   </si>
   <si>
     <t>VIVO</t>
@@ -74,12 +129,6 @@
     <t>Java工程师（IT应用方向）</t>
   </si>
   <si>
-    <t>牛客/官网</t>
-  </si>
-  <si>
-    <t>南京</t>
-  </si>
-  <si>
     <t>在线测评(简历投递截止日期之前完成)</t>
   </si>
   <si>
@@ -92,45 +141,42 @@
     <t>Java研发工程师-技术体系</t>
   </si>
   <si>
-    <t>北京</t>
-  </si>
-  <si>
     <t>奇安信</t>
   </si>
   <si>
-    <t>服务端开发工程师-Java</t>
-  </si>
-  <si>
     <t>顺网科技</t>
   </si>
   <si>
     <t>牛客网</t>
   </si>
   <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>通过初选</t>
+    <t>完成测评</t>
+  </si>
+  <si>
+    <t>中原银行</t>
+  </si>
+  <si>
+    <t>郑州</t>
+  </si>
+  <si>
+    <t>8.28 10:00--22:00 之间</t>
+  </si>
+  <si>
+    <t>老虎集团</t>
+  </si>
+  <si>
+    <t>Java开发工程师(Esop)</t>
+  </si>
+  <si>
+    <t>8.29 晚17:00--18:30</t>
+  </si>
+  <si>
+    <t>阳关保险</t>
   </si>
   <si>
     <t>后续待企业安排</t>
   </si>
   <si>
-    <t>在线测评(8.31失效)</t>
-  </si>
-  <si>
-    <t>老虎集团</t>
-  </si>
-  <si>
-    <t>Java开发工程师(Esop)</t>
-  </si>
-  <si>
-    <t>阳关保险</t>
-  </si>
-  <si>
-    <t>软件开发工程师</t>
-  </si>
-  <si>
     <t>阿里巴巴灵犀互娱</t>
   </si>
   <si>
@@ -161,12 +207,6 @@
     <t>EA China</t>
   </si>
   <si>
-    <t>中原银行</t>
-  </si>
-  <si>
-    <t>郑州</t>
-  </si>
-  <si>
     <t>麦吉太文</t>
   </si>
   <si>
@@ -176,6 +216,9 @@
     <t>北京爱笔科技有限公司</t>
   </si>
   <si>
+    <t>简历被拒</t>
+  </si>
+  <si>
     <t>终止</t>
   </si>
   <si>
@@ -186,32 +229,19 @@
   </si>
   <si>
     <t>广发证卷</t>
-  </si>
-  <si>
-    <t>广州</t>
-  </si>
-  <si>
-    <t>通过初选</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.27 晚 20:00--22:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>简历被拒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,7 +255,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -233,7 +262,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -241,19 +269,147 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,12 +430,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -287,16 +653,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,97 +920,160 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
@@ -415,30 +1083,27 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A:J" totalsRowShown="0">
   <autoFilter ref="A1:J1048576"/>
   <sortState ref="A2:J1048576">
-    <sortCondition descending="1" ref="B1"/>
+    <sortCondition ref="B1" descending="1"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="公司名称" dataDxfId="9"/>
-    <tableColumn id="2" name="投递时间" dataDxfId="8"/>
-    <tableColumn id="3" name="投递岗位" dataDxfId="7"/>
-    <tableColumn id="10" name="投递渠道" dataDxfId="6"/>
-    <tableColumn id="4" name="工作地点" dataDxfId="5"/>
-    <tableColumn id="5" name="简历状态更新" dataDxfId="4"/>
-    <tableColumn id="9" name="当前进度" dataDxfId="3"/>
-    <tableColumn id="6" name="笔试" dataDxfId="2"/>
-    <tableColumn id="7" name="面试" dataDxfId="1"/>
-    <tableColumn id="8" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" name="公司名称" dataDxfId="0"/>
+    <tableColumn id="2" name="投递时间" dataDxfId="1"/>
+    <tableColumn id="3" name="投递岗位" dataDxfId="2"/>
+    <tableColumn id="10" name="投递渠道" dataDxfId="3"/>
+    <tableColumn id="4" name="工作地点" dataDxfId="4"/>
+    <tableColumn id="5" name="简历状态更新" dataDxfId="5"/>
+    <tableColumn id="9" name="当前进度" dataDxfId="6"/>
+    <tableColumn id="6" name="笔试" dataDxfId="7"/>
+    <tableColumn id="7" name="面试" dataDxfId="8"/>
+    <tableColumn id="8" name="备注" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -725,34 +1390,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.3796296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="30.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="55.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.3796296296296" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.8796296296296" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.1111111111111" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.6666666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="87.3333333333333" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -784,12 +1449,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -800,441 +1465,583 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>360</v>
       </c>
       <c r="B4" s="3">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44437</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:10">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B7" s="3">
+        <v>44436</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J7" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44432</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="3">
+        <v>44432</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H9" s="2"/>
+      <c r="J9" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" s="1" customFormat="1" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3">
         <v>44431</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3">
         <v>44431</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14" s="3">
         <v>44431</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B15" s="3">
         <v>44431</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3">
         <v>44431</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="6">
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="3">
         <v>44431</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="C22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="9">
         <v>44431</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="9">
         <v>44431</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="9">
+        <v>44431</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1"/>
+    <hyperlink ref="J9" r:id="rId2" display="https://hr.vivo.com/wt/vivo/web/index/CompvivoIndex"/>
+    <hyperlink ref="J7" r:id="rId3" display="https://cmbntjob.cmbchina.com/pages/mycenter/default.html" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
+    <hyperlink ref="J6" r:id="rId4" display="https://career.hihonor.com/SU60eea919bef57c1023f6fe78/pb/account.html#/account"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/秋招投递记录.xlsx
+++ b/src/main/resources/秋招投递记录.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZQF\note\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
   <si>
     <t>公司名称</t>
   </si>
@@ -150,9 +155,6 @@
     <t>牛客网</t>
   </si>
   <si>
-    <t>完成测评</t>
-  </si>
-  <si>
     <t>中原银行</t>
   </si>
   <si>
@@ -174,9 +176,6 @@
     <t>阳关保险</t>
   </si>
   <si>
-    <t>后续待企业安排</t>
-  </si>
-  <si>
     <t>阿里巴巴灵犀互娱</t>
   </si>
   <si>
@@ -229,19 +228,17 @@
   </si>
   <si>
     <t>广发证卷</t>
+  </si>
+  <si>
+    <t>未通过筛选</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +252,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -262,6 +260,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -269,147 +268,19 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,12 +313,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -460,192 +325,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -653,251 +338,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -926,154 +372,123 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <b val="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
@@ -1083,27 +498,30 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A:J" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0">
   <autoFilter ref="A1:J1048576"/>
-  <sortState ref="A2:J1048576">
-    <sortCondition ref="B1" descending="1"/>
+  <sortState ref="A2:J25">
+    <sortCondition descending="1" ref="B1:B1048576"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="公司名称" dataDxfId="0"/>
-    <tableColumn id="2" name="投递时间" dataDxfId="1"/>
-    <tableColumn id="3" name="投递岗位" dataDxfId="2"/>
-    <tableColumn id="10" name="投递渠道" dataDxfId="3"/>
-    <tableColumn id="4" name="工作地点" dataDxfId="4"/>
-    <tableColumn id="5" name="简历状态更新" dataDxfId="5"/>
-    <tableColumn id="9" name="当前进度" dataDxfId="6"/>
-    <tableColumn id="6" name="笔试" dataDxfId="7"/>
-    <tableColumn id="7" name="面试" dataDxfId="8"/>
-    <tableColumn id="8" name="备注" dataDxfId="9"/>
+    <tableColumn id="1" name="公司名称" dataDxfId="11"/>
+    <tableColumn id="2" name="投递时间" dataDxfId="10"/>
+    <tableColumn id="3" name="投递岗位" dataDxfId="9"/>
+    <tableColumn id="10" name="投递渠道" dataDxfId="8"/>
+    <tableColumn id="4" name="工作地点" dataDxfId="7"/>
+    <tableColumn id="5" name="简历状态更新" dataDxfId="6"/>
+    <tableColumn id="9" name="当前进度" dataDxfId="5"/>
+    <tableColumn id="6" name="笔试" dataDxfId="4"/>
+    <tableColumn id="7" name="面试" dataDxfId="3"/>
+    <tableColumn id="8" name="备注" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1390,34 +808,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.3796296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.3796296296296" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.6296296296296" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.8796296296296" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.1296296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="36" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.1111111111111" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.6666666666667" style="2" customWidth="1"/>
-    <col min="10" max="10" width="87.3333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="87.375" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1473,7 +891,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1493,7 +911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>360</v>
       </c>
@@ -1513,7 +931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1533,7 +951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1552,11 +970,11 @@
       <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1578,11 +996,11 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1608,7 +1026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -1630,12 +1048,11 @@
       <c r="G9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1655,7 +1072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1675,47 +1092,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:10">
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3">
         <v>44431</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="2"/>
+      <c r="G12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3">
         <v>44431</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>32</v>
@@ -1724,18 +1143,18 @@
         <v>33</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3">
         <v>44431</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>43</v>
@@ -1746,14 +1165,9 @@
       <c r="F14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -1761,7 +1175,7 @@
         <v>44431</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>43</v>
@@ -1772,36 +1186,34 @@
       <c r="F15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="B17" s="3">
         <v>44431</v>
@@ -1819,69 +1231,72 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B18" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="B19" s="3">
         <v>44431</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3">
         <v>44431</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="3">
         <v>44431</v>
@@ -1893,21 +1308,21 @@
         <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="3">
         <v>44431</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>43</v>
@@ -1919,15 +1334,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="9">
+        <v>63</v>
+      </c>
+      <c r="B23" s="8">
         <v>44431</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>43</v>
@@ -1935,51 +1350,51 @@
       <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>67</v>
+      <c r="F23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="9">
+        <v>66</v>
+      </c>
+      <c r="B24" s="8">
         <v>44431</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="9">
+        <v>68</v>
+      </c>
+      <c r="B25" s="8">
         <v>44431</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>43</v>
@@ -1987,61 +1402,55 @@
       <c r="E25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>67</v>
+      <c r="F25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J9" r:id="rId2" display="https://hr.vivo.com/wt/vivo/web/index/CompvivoIndex"/>
-    <hyperlink ref="J7" r:id="rId3" display="https://cmbntjob.cmbchina.com/pages/mycenter/default.html" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
-    <hyperlink ref="J6" r:id="rId4" display="https://career.hihonor.com/SU60eea919bef57c1023f6fe78/pb/account.html#/account"/>
+    <hyperlink ref="J9" r:id="rId1"/>
+    <hyperlink ref="J7" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
+    <hyperlink ref="J6" r:id="rId3" location="/account"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/秋招投递记录.xlsx
+++ b/src/main/resources/秋招投递记录.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZQF\note\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="79">
   <si>
     <t>公司名称</t>
   </si>
@@ -53,6 +48,48 @@
     <t>备注</t>
   </si>
   <si>
+    <t>交通银行</t>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+  </si>
+  <si>
+    <t>官网</t>
+  </si>
+  <si>
+    <t>北京/上海等</t>
+  </si>
+  <si>
+    <t>投递中</t>
+  </si>
+  <si>
+    <t>https://job.bankcomm.com/getpersonalInfo.do?step=99</t>
+  </si>
+  <si>
+    <t>招联金融</t>
+  </si>
+  <si>
+    <t>后台开发</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>https://wecruit.hotjob.cn/SU61027bb10dcad47a7e23e040/pb/account.html#/myDeliver</t>
+  </si>
+  <si>
+    <t>小米集团</t>
+  </si>
+  <si>
+    <t>软件开发工程师-java方向</t>
+  </si>
+  <si>
+    <t>牛客网</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
     <t>广联达集团</t>
   </si>
   <si>
@@ -65,9 +102,6 @@
     <t>北京</t>
   </si>
   <si>
-    <t>投递中</t>
-  </si>
-  <si>
     <t>天眼查集团</t>
   </si>
   <si>
@@ -77,9 +111,6 @@
     <t>服务端开发工程师-Java</t>
   </si>
   <si>
-    <t>南京</t>
-  </si>
-  <si>
     <t>4399游戏</t>
   </si>
   <si>
@@ -95,18 +126,12 @@
     <t>软件开发工程师-互联网软件</t>
   </si>
   <si>
-    <t>官网</t>
-  </si>
-  <si>
     <t>https://career.hihonor.com/SU60eea919bef57c1023f6fe78/pb/account.html#/account</t>
   </si>
   <si>
     <t>招银网络科技</t>
   </si>
   <si>
-    <t>软件开发工程师</t>
-  </si>
-  <si>
     <t>杭州</t>
   </si>
   <si>
@@ -149,37 +174,40 @@
     <t>奇安信</t>
   </si>
   <si>
+    <t>中原银行</t>
+  </si>
+  <si>
+    <t>郑州</t>
+  </si>
+  <si>
+    <t>8.28 10:00--22:00 之间</t>
+  </si>
+  <si>
+    <t>老虎集团</t>
+  </si>
+  <si>
+    <t>Java开发工程师(Esop)</t>
+  </si>
+  <si>
+    <t>8.29 晚17:00--18:30</t>
+  </si>
+  <si>
+    <t>阳关保险</t>
+  </si>
+  <si>
+    <t>阿里巴巴灵犀互娱</t>
+  </si>
+  <si>
+    <t>研发工程师Java</t>
+  </si>
+  <si>
     <t>顺网科技</t>
   </si>
   <si>
-    <t>牛客网</t>
-  </si>
-  <si>
-    <t>中原银行</t>
-  </si>
-  <si>
-    <t>郑州</t>
-  </si>
-  <si>
-    <t>8.28 10:00--22:00 之间</t>
-  </si>
-  <si>
-    <t>老虎集团</t>
-  </si>
-  <si>
-    <t>Java开发工程师(Esop)</t>
-  </si>
-  <si>
-    <t>8.29 晚17:00--18:30</t>
-  </si>
-  <si>
-    <t>阳关保险</t>
-  </si>
-  <si>
-    <t>阿里巴巴灵犀互娱</t>
-  </si>
-  <si>
-    <t>研发工程师Java</t>
+    <t>未通过筛选</t>
+  </si>
+  <si>
+    <t>终止</t>
   </si>
   <si>
     <t>招商局金融科技</t>
@@ -218,9 +246,6 @@
     <t>简历被拒</t>
   </si>
   <si>
-    <t>终止</t>
-  </si>
-  <si>
     <t>智己汽车</t>
   </si>
   <si>
@@ -228,17 +253,19 @@
   </si>
   <si>
     <t>广发证卷</t>
-  </si>
-  <si>
-    <t>未通过筛选</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,7 +279,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -260,7 +286,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -268,19 +293,147 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +466,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -325,12 +484,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -338,12 +677,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -372,123 +950,154 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="10">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <b val="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
@@ -498,30 +1107,27 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A:J" totalsRowShown="0">
   <autoFilter ref="A1:J1048576"/>
-  <sortState ref="A2:J25">
-    <sortCondition descending="1" ref="B1:B1048576"/>
+  <sortState ref="A2:J1048576">
+    <sortCondition ref="B1" descending="1"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="公司名称" dataDxfId="11"/>
-    <tableColumn id="2" name="投递时间" dataDxfId="10"/>
-    <tableColumn id="3" name="投递岗位" dataDxfId="9"/>
-    <tableColumn id="10" name="投递渠道" dataDxfId="8"/>
-    <tableColumn id="4" name="工作地点" dataDxfId="7"/>
-    <tableColumn id="5" name="简历状态更新" dataDxfId="6"/>
-    <tableColumn id="9" name="当前进度" dataDxfId="5"/>
-    <tableColumn id="6" name="笔试" dataDxfId="4"/>
-    <tableColumn id="7" name="面试" dataDxfId="3"/>
-    <tableColumn id="8" name="备注" dataDxfId="2"/>
+    <tableColumn id="1" name="公司名称" dataDxfId="0"/>
+    <tableColumn id="2" name="投递时间" dataDxfId="1"/>
+    <tableColumn id="3" name="投递岗位" dataDxfId="2"/>
+    <tableColumn id="10" name="投递渠道" dataDxfId="3"/>
+    <tableColumn id="4" name="工作地点" dataDxfId="4"/>
+    <tableColumn id="5" name="简历状态更新" dataDxfId="5"/>
+    <tableColumn id="9" name="当前进度" dataDxfId="6"/>
+    <tableColumn id="6" name="笔试" dataDxfId="7"/>
+    <tableColumn id="7" name="面试" dataDxfId="8"/>
+    <tableColumn id="8" name="备注" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -808,34 +1414,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.3796296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.3796296296296" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.8796296296296" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.1296296296296" style="2" customWidth="1"/>
     <col min="7" max="7" width="36" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="87.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.1296296296296" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.6296296296296" style="2" customWidth="1"/>
+    <col min="10" max="10" width="87.3796296296296" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -867,12 +1473,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -889,106 +1495,108 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J2" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>360</v>
+      <c r="J3" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="3">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>44437</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3">
         <v>44437</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:10">
+      <c r="A7" s="2">
+        <v>360</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44437</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3">
-        <v>44436</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>14</v>
@@ -996,461 +1604,545 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44437</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44432</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="2"/>
+      <c r="J9" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="B10" s="3">
-        <v>44432</v>
+        <v>44436</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J10" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3">
         <v>44432</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44432</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="G12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44432</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3">
         <v>44431</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="H15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:10">
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="G16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3">
         <v>44431</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="8">
+        <v>27</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="3">
         <v>44431</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="9">
         <v>44431</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3">
         <v>44431</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="3">
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="9">
         <v>44431</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B22" s="3">
         <v>44431</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="9">
+        <v>44431</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="8">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="9">
         <v>44431</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="8">
+      <c r="F27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="9">
         <v>44431</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J9" r:id="rId1"/>
-    <hyperlink ref="J7" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
-    <hyperlink ref="J6" r:id="rId3" location="/account"/>
+    <hyperlink ref="J12" r:id="rId2" display="https://hr.vivo.com/wt/vivo/web/index/CompvivoIndex"/>
+    <hyperlink ref="J10" r:id="rId3" display="https://cmbntjob.cmbchina.com/pages/mycenter/default.html" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
+    <hyperlink ref="J9" r:id="rId4" display="https://career.hihonor.com/SU60eea919bef57c1023f6fe78/pb/account.html#/account"/>
+    <hyperlink ref="J2" r:id="rId5" display="https://job.bankcomm.com/getpersonalInfo.do?step=99"/>
+    <hyperlink ref="J3" r:id="rId6" display="https://wecruit.hotjob.cn/SU61027bb10dcad47a7e23e040/pb/account.html#/myDeliver"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/秋招投递记录.xlsx
+++ b/src/main/resources/秋招投递记录.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZQF\note\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
   <si>
     <t>公司名称</t>
   </si>
@@ -253,19 +258,21 @@
   </si>
   <si>
     <t>广发证卷</t>
+  </si>
+  <si>
+    <t>9.5 下午 15:00--16:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约笔试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +286,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -286,6 +294,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -293,147 +302,19 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,194 +363,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -677,251 +372,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -962,142 +418,95 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
@@ -1107,27 +516,30 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A:J" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0">
   <autoFilter ref="A1:J1048576"/>
   <sortState ref="A2:J1048576">
-    <sortCondition ref="B1" descending="1"/>
+    <sortCondition descending="1" ref="B1"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="公司名称" dataDxfId="0"/>
-    <tableColumn id="2" name="投递时间" dataDxfId="1"/>
-    <tableColumn id="3" name="投递岗位" dataDxfId="2"/>
-    <tableColumn id="10" name="投递渠道" dataDxfId="3"/>
-    <tableColumn id="4" name="工作地点" dataDxfId="4"/>
-    <tableColumn id="5" name="简历状态更新" dataDxfId="5"/>
-    <tableColumn id="9" name="当前进度" dataDxfId="6"/>
-    <tableColumn id="6" name="笔试" dataDxfId="7"/>
-    <tableColumn id="7" name="面试" dataDxfId="8"/>
-    <tableColumn id="8" name="备注" dataDxfId="9"/>
+    <tableColumn id="1" name="公司名称" dataDxfId="9"/>
+    <tableColumn id="2" name="投递时间" dataDxfId="8"/>
+    <tableColumn id="3" name="投递岗位" dataDxfId="7"/>
+    <tableColumn id="10" name="投递渠道" dataDxfId="6"/>
+    <tableColumn id="4" name="工作地点" dataDxfId="5"/>
+    <tableColumn id="5" name="简历状态更新" dataDxfId="4"/>
+    <tableColumn id="9" name="当前进度" dataDxfId="3"/>
+    <tableColumn id="6" name="笔试" dataDxfId="2"/>
+    <tableColumn id="7" name="面试" dataDxfId="1"/>
+    <tableColumn id="8" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1414,34 +826,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.3796296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.3796296296296" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.6296296296296" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.8796296296296" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.1296296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="36" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.1296296296296" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.6296296296296" style="2" customWidth="1"/>
-    <col min="10" max="10" width="87.3796296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="87.375" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1499,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1522,7 +934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1542,7 +954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1562,7 +974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1582,7 +994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>360</v>
       </c>
@@ -1606,7 +1018,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1626,7 +1038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1645,12 +1057,11 @@
       <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2"/>
       <c r="J9" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -1673,7 +1084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -1699,7 +1110,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:10">
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -1727,7 +1138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -1746,8 +1157,14 @@
       <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -1767,7 +1184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -1793,7 +1210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:10">
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -1821,7 +1238,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
@@ -1842,7 +1259,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:10">
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -1866,7 +1283,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -1892,7 +1309,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>64</v>
       </c>
@@ -1912,7 +1329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1938,7 +1355,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>67</v>
       </c>
@@ -1958,7 +1375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -1978,7 +1395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -1998,7 +1415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
@@ -2018,7 +1435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -2044,7 +1461,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -2070,7 +1487,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -2097,52 +1514,46 @@
       <c r="J28" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J12" r:id="rId2" display="https://hr.vivo.com/wt/vivo/web/index/CompvivoIndex"/>
-    <hyperlink ref="J10" r:id="rId3" display="https://cmbntjob.cmbchina.com/pages/mycenter/default.html" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
-    <hyperlink ref="J9" r:id="rId4" display="https://career.hihonor.com/SU60eea919bef57c1023f6fe78/pb/account.html#/account"/>
-    <hyperlink ref="J2" r:id="rId5" display="https://job.bankcomm.com/getpersonalInfo.do?step=99"/>
-    <hyperlink ref="J3" r:id="rId6" display="https://wecruit.hotjob.cn/SU61027bb10dcad47a7e23e040/pb/account.html#/myDeliver"/>
+    <hyperlink ref="J12" r:id="rId1"/>
+    <hyperlink ref="J10" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
+    <hyperlink ref="J9" r:id="rId3"/>
+    <hyperlink ref="J2" r:id="rId4"/>
+    <hyperlink ref="J3" r:id="rId5" location="/myDeliver"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/秋招投递记录.xlsx
+++ b/src/main/resources/秋招投递记录.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZQF\note\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="87">
   <si>
     <t>公司名称</t>
   </si>
@@ -38,9 +33,6 @@
     <t>工作地点</t>
   </si>
   <si>
-    <t>简历状态更新</t>
-  </si>
-  <si>
     <t>当前进度</t>
   </si>
   <si>
@@ -53,21 +45,60 @@
     <t>备注</t>
   </si>
   <si>
+    <t>华为</t>
+  </si>
+  <si>
+    <t>通用软件开发工程师</t>
+  </si>
+  <si>
+    <t>官网</t>
+  </si>
+  <si>
+    <t>济南/南京</t>
+  </si>
+  <si>
+    <t>小米</t>
+  </si>
+  <si>
+    <t>软件开发工程师-java方向</t>
+  </si>
+  <si>
+    <t>牛客/Moka</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>应用软件开发工程师-Java</t>
+  </si>
+  <si>
+    <t>济南</t>
+  </si>
+  <si>
+    <t>https://campushr.hikvision.com/myDelivery.html</t>
+  </si>
+  <si>
+    <t>移动设计院</t>
+  </si>
+  <si>
+    <t>IT研发-技术类</t>
+  </si>
+  <si>
+    <t>51job</t>
+  </si>
+  <si>
     <t>交通银行</t>
   </si>
   <si>
     <t>软件开发工程师</t>
   </si>
   <si>
-    <t>官网</t>
-  </si>
-  <si>
     <t>北京/上海等</t>
   </si>
   <si>
-    <t>投递中</t>
-  </si>
-  <si>
     <t>https://job.bankcomm.com/getpersonalInfo.do?step=99</t>
   </si>
   <si>
@@ -83,105 +114,96 @@
     <t>https://wecruit.hotjob.cn/SU61027bb10dcad47a7e23e040/pb/account.html#/myDeliver</t>
   </si>
   <si>
-    <t>小米集团</t>
-  </si>
-  <si>
-    <t>软件开发工程师-java方向</t>
+    <t>广联达集团</t>
+  </si>
+  <si>
+    <t>Java后端开发工程师</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>预约笔试</t>
+  </si>
+  <si>
+    <t>9.1 晚 18:00--23:30</t>
+  </si>
+  <si>
+    <t>天眼查集团</t>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+  </si>
+  <si>
+    <t>服务端开发工程师-Java</t>
+  </si>
+  <si>
+    <t>4399游戏</t>
+  </si>
+  <si>
+    <t>牛客/官网</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>荣耀honor</t>
+  </si>
+  <si>
+    <t>软件开发工程师-互联网软件</t>
+  </si>
+  <si>
+    <t>https://career.hihonor.com/SU60eea919bef57c1023f6fe78/pb/account.html#/account</t>
+  </si>
+  <si>
+    <t>招银网络科技</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>https://cmbntjob.cmbchina.com/pages/mycenter/default.html</t>
+  </si>
+  <si>
+    <t>微众银行</t>
+  </si>
+  <si>
+    <t>武汉</t>
+  </si>
+  <si>
+    <t>完成笔试</t>
+  </si>
+  <si>
+    <t>8.27 晚 20:00--22:00</t>
+  </si>
+  <si>
+    <t>VIVO</t>
+  </si>
+  <si>
+    <t>Java工程师（IT应用方向）</t>
+  </si>
+  <si>
+    <t>https://hr.vivo.com/wt/vivo/web/index/CompvivoIndex</t>
+  </si>
+  <si>
+    <t>度小满科技</t>
+  </si>
+  <si>
+    <t>Java研发工程师-技术体系</t>
+  </si>
+  <si>
+    <t>9.5 下午 15:00--16:30</t>
+  </si>
+  <si>
+    <t>奇安信</t>
+  </si>
+  <si>
+    <t>中原银行</t>
   </si>
   <si>
     <t>牛客网</t>
   </si>
   <si>
-    <t>南京</t>
-  </si>
-  <si>
-    <t>广联达集团</t>
-  </si>
-  <si>
-    <t>Java后端开发工程师</t>
-  </si>
-  <si>
-    <t>牛客/Moka</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>天眼查集团</t>
-  </si>
-  <si>
-    <t>Java开发工程师</t>
-  </si>
-  <si>
-    <t>服务端开发工程师-Java</t>
-  </si>
-  <si>
-    <t>4399游戏</t>
-  </si>
-  <si>
-    <t>牛客/官网</t>
-  </si>
-  <si>
-    <t>广州</t>
-  </si>
-  <si>
-    <t>荣耀honor</t>
-  </si>
-  <si>
-    <t>软件开发工程师-互联网软件</t>
-  </si>
-  <si>
-    <t>https://career.hihonor.com/SU60eea919bef57c1023f6fe78/pb/account.html#/account</t>
-  </si>
-  <si>
-    <t>招银网络科技</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>https://cmbntjob.cmbchina.com/pages/mycenter/default.html</t>
-  </si>
-  <si>
-    <t>微众银行</t>
-  </si>
-  <si>
-    <t>武汉</t>
-  </si>
-  <si>
-    <t>通过初选</t>
-  </si>
-  <si>
-    <t>完成笔试</t>
-  </si>
-  <si>
-    <t>8.27 晚 20:00--22:00</t>
-  </si>
-  <si>
-    <t>VIVO</t>
-  </si>
-  <si>
-    <t>Java工程师（IT应用方向）</t>
-  </si>
-  <si>
-    <t>在线测评(简历投递截止日期之前完成)</t>
-  </si>
-  <si>
-    <t>https://hr.vivo.com/wt/vivo/web/index/CompvivoIndex</t>
-  </si>
-  <si>
-    <t>度小满科技</t>
-  </si>
-  <si>
-    <t>Java研发工程师-技术体系</t>
-  </si>
-  <si>
-    <t>奇安信</t>
-  </si>
-  <si>
-    <t>中原银行</t>
-  </si>
-  <si>
     <t>郑州</t>
   </si>
   <si>
@@ -209,15 +231,15 @@
     <t>顺网科技</t>
   </si>
   <si>
-    <t>未通过筛选</t>
-  </si>
-  <si>
     <t>终止</t>
   </si>
   <si>
     <t>招商局金融科技</t>
   </si>
   <si>
+    <t>9.6 下午 15:00--16:30</t>
+  </si>
+  <si>
     <t>Soul</t>
   </si>
   <si>
@@ -248,9 +270,6 @@
     <t>北京爱笔科技有限公司</t>
   </si>
   <si>
-    <t>简历被拒</t>
-  </si>
-  <si>
     <t>智己汽车</t>
   </si>
   <si>
@@ -258,21 +277,19 @@
   </si>
   <si>
     <t>广发证卷</t>
-  </si>
-  <si>
-    <t>9.5 下午 15:00--16:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约笔试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,7 +303,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -294,7 +310,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -302,19 +317,147 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,13 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,30 +478,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -372,16 +683,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,113 +950,146 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
+        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
@@ -516,30 +1099,26 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0">
-  <autoFilter ref="A1:J1048576"/>
-  <sortState ref="A2:J1048576">
-    <sortCondition descending="1" ref="B1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I1048575" totalsRowShown="0">
+  <autoFilter ref="A1:I1048575"/>
+  <sortState ref="A2:I1048575">
+    <sortCondition ref="B1" descending="1"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="1" name="公司名称" dataDxfId="9"/>
-    <tableColumn id="2" name="投递时间" dataDxfId="8"/>
-    <tableColumn id="3" name="投递岗位" dataDxfId="7"/>
-    <tableColumn id="10" name="投递渠道" dataDxfId="6"/>
-    <tableColumn id="4" name="工作地点" dataDxfId="5"/>
-    <tableColumn id="5" name="简历状态更新" dataDxfId="4"/>
-    <tableColumn id="9" name="当前进度" dataDxfId="3"/>
-    <tableColumn id="6" name="笔试" dataDxfId="2"/>
-    <tableColumn id="7" name="面试" dataDxfId="1"/>
-    <tableColumn id="8" name="备注" dataDxfId="0"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="公司名称" dataDxfId="0"/>
+    <tableColumn id="2" name="投递时间" dataDxfId="1"/>
+    <tableColumn id="3" name="投递岗位" dataDxfId="2"/>
+    <tableColumn id="10" name="投递渠道" dataDxfId="3"/>
+    <tableColumn id="4" name="工作地点" dataDxfId="4"/>
+    <tableColumn id="9" name="当前进度" dataDxfId="5"/>
+    <tableColumn id="6" name="笔试" dataDxfId="6"/>
+    <tableColumn id="7" name="面试" dataDxfId="7"/>
+    <tableColumn id="8" name="备注" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -826,34 +1405,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.3796296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="87.375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="27.3796296296296" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.8796296296296" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.6296296296296" style="2" customWidth="1"/>
+    <col min="9" max="9" width="87.3796296296296" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -881,679 +1459,673 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3">
+        <v>44440</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
-        <v>44438</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44440</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44440</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="I4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44440</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
         <v>44438</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3">
         <v>44438</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3">
-        <v>44437</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="3">
-        <v>44437</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>360</v>
-      </c>
-      <c r="B7" s="3">
-        <v>44437</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I7" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3">
         <v>44437</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3">
         <v>44437</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>360</v>
       </c>
       <c r="B10" s="3">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="B12" s="3">
+        <v>44437</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="I12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="3">
-        <v>44432</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="B13" s="3">
+        <v>44436</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44432</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="B14" s="3">
         <v>44432</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" s="3">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="3">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="3">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="3">
         <v>44431</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="9">
-        <v>44431</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B20" s="3">
         <v>44431</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="9">
+        <v>34</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="3">
         <v>44431</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="C21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="8">
         <v>44431</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B23" s="3">
         <v>44431</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B25" s="3">
         <v>44431</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="3">
         <v>44431</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="10" t="s">
+      <c r="C26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="9">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="3">
         <v>44431</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="10" t="s">
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="9">
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="3">
         <v>44431</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="10" t="s">
+      <c r="C28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="F30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J12" r:id="rId1"/>
-    <hyperlink ref="J10" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
-    <hyperlink ref="J9" r:id="rId3"/>
-    <hyperlink ref="J2" r:id="rId4"/>
-    <hyperlink ref="J3" r:id="rId5" location="/myDeliver"/>
+    <hyperlink ref="I15" r:id="rId2" display="https://hr.vivo.com/wt/vivo/web/index/CompvivoIndex"/>
+    <hyperlink ref="I13" r:id="rId3" display="https://cmbntjob.cmbchina.com/pages/mycenter/default.html" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
+    <hyperlink ref="I12" r:id="rId4" display="https://career.hihonor.com/SU60eea919bef57c1023f6fe78/pb/account.html#/account"/>
+    <hyperlink ref="I6" r:id="rId5" display="https://job.bankcomm.com/getpersonalInfo.do?step=99"/>
+    <hyperlink ref="I7" r:id="rId6" display="https://wecruit.hotjob.cn/SU61027bb10dcad47a7e23e040/pb/account.html#/myDeliver"/>
+    <hyperlink ref="I4" r:id="rId7" display="https://campushr.hikvision.com/myDelivery.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/秋招投递记录.xlsx
+++ b/src/main/resources/秋招投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -282,14 +282,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,143 +315,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,194 +352,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -683,251 +361,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -962,134 +401,87 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
-        <b val="1"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
@@ -1107,18 +499,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I1048575" totalsRowShown="0">
   <autoFilter ref="A1:I1048575"/>
   <sortState ref="A2:I1048575">
-    <sortCondition ref="B1" descending="1"/>
+    <sortCondition descending="1" ref="B1"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="公司名称" dataDxfId="0"/>
-    <tableColumn id="2" name="投递时间" dataDxfId="1"/>
-    <tableColumn id="3" name="投递岗位" dataDxfId="2"/>
-    <tableColumn id="10" name="投递渠道" dataDxfId="3"/>
+    <tableColumn id="1" name="公司名称" dataDxfId="8"/>
+    <tableColumn id="2" name="投递时间" dataDxfId="7"/>
+    <tableColumn id="3" name="投递岗位" dataDxfId="6"/>
+    <tableColumn id="10" name="投递渠道" dataDxfId="5"/>
     <tableColumn id="4" name="工作地点" dataDxfId="4"/>
-    <tableColumn id="9" name="当前进度" dataDxfId="5"/>
-    <tableColumn id="6" name="笔试" dataDxfId="6"/>
-    <tableColumn id="7" name="面试" dataDxfId="7"/>
-    <tableColumn id="8" name="备注" dataDxfId="8"/>
+    <tableColumn id="9" name="当前进度" dataDxfId="3"/>
+    <tableColumn id="6" name="笔试" dataDxfId="2"/>
+    <tableColumn id="7" name="面试" dataDxfId="1"/>
+    <tableColumn id="8" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1405,33 +797,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.3796296296296" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.3796296296296" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.6296296296296" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.8796296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="36" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.1296296296296" style="2" customWidth="1"/>
-    <col min="8" max="8" width="32.6296296296296" style="2" customWidth="1"/>
-    <col min="9" max="9" width="87.3796296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="87.33203125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1481,7 +873,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1498,7 +890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1514,13 +906,11 @@
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
       <c r="I4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1537,7 +927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1560,7 +950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1580,7 +970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1596,14 +986,14 @@
       <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -1620,7 +1010,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>360</v>
       </c>
@@ -1637,7 +1027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -1658,7 +1048,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -1674,13 +1064,11 @@
       <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
       <c r="I12" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -1700,7 +1088,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
@@ -1723,7 +1111,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:9">
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
@@ -1746,7 +1134,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
@@ -1769,7 +1157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:9">
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>59</v>
       </c>
@@ -1790,7 +1178,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>60</v>
       </c>
@@ -1813,7 +1201,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
@@ -1836,7 +1224,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
@@ -1854,7 +1242,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -1872,7 +1260,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
@@ -1895,7 +1283,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
@@ -1918,7 +1306,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
@@ -1941,7 +1329,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
@@ -1958,7 +1346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
@@ -1975,7 +1363,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>80</v>
       </c>
@@ -1992,7 +1380,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>81</v>
       </c>
@@ -2009,7 +1397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>83</v>
       </c>
@@ -2032,7 +1420,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
@@ -2055,7 +1443,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
@@ -2079,53 +1467,47 @@
       <c r="I31" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I15" r:id="rId2" display="https://hr.vivo.com/wt/vivo/web/index/CompvivoIndex"/>
-    <hyperlink ref="I13" r:id="rId3" display="https://cmbntjob.cmbchina.com/pages/mycenter/default.html" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
-    <hyperlink ref="I12" r:id="rId4" display="https://career.hihonor.com/SU60eea919bef57c1023f6fe78/pb/account.html#/account"/>
-    <hyperlink ref="I6" r:id="rId5" display="https://job.bankcomm.com/getpersonalInfo.do?step=99"/>
-    <hyperlink ref="I7" r:id="rId6" display="https://wecruit.hotjob.cn/SU61027bb10dcad47a7e23e040/pb/account.html#/myDeliver"/>
-    <hyperlink ref="I4" r:id="rId7" display="https://campushr.hikvision.com/myDelivery.html"/>
+    <hyperlink ref="I15" r:id="rId1"/>
+    <hyperlink ref="I13" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
+    <hyperlink ref="I12" r:id="rId3"/>
+    <hyperlink ref="I6" r:id="rId4"/>
+    <hyperlink ref="I7" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/秋招投递记录.xlsx
+++ b/src/main/resources/秋招投递记录.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZQF\note\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="117">
   <si>
     <t>公司名称</t>
   </si>
@@ -277,12 +282,132 @@
   </si>
   <si>
     <t>广发证卷</t>
+  </si>
+  <si>
+    <t>中国移动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iotchinamobile.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐捷网络</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发岗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHEIN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java软件开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://trendmicro.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.163.com/app/personal/apply</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿盟科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋招研发工程师及</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.zte.com.cn/ZTE.Graduate.Web/CenterPage/Index.aspx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://inspur.hcmcloud.cn/recruit#/progress</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>海信</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hisense.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,6 +422,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -304,6 +430,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -311,12 +438,14 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -370,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -404,13 +533,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -491,6 +617,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -498,8 +627,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I1048575" totalsRowShown="0">
   <autoFilter ref="A1:I1048575"/>
-  <sortState ref="A2:I1048575">
-    <sortCondition descending="1" ref="B1"/>
+  <sortState ref="A2:I41">
+    <sortCondition descending="1" ref="B1:B1048575"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" name="公司名称" dataDxfId="8"/>
@@ -517,7 +646,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -559,7 +688,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,7 +723,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -803,27 +932,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="36" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="87.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="87.375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -852,634 +981,833 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3">
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3">
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="B4" s="3">
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="B5" s="3">
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3">
-        <v>44438</v>
+        <v>44442</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3">
-        <v>44438</v>
+        <v>44442</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3">
-        <v>44437</v>
+        <v>44442</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3">
-        <v>44437</v>
+        <v>44442</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>360</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B10" s="3">
-        <v>44437</v>
+        <v>44442</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="B11" s="3">
-        <v>44437</v>
+        <v>44442</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>44437</v>
+        <v>44440</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44440</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44436</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44440</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44432</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3">
-        <v>44432</v>
+        <v>44440</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3">
-        <v>44432</v>
+        <v>44438</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3">
-        <v>44432</v>
+        <v>44438</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3">
-        <v>44431</v>
+        <v>44437</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>51</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3">
-        <v>44431</v>
+        <v>44437</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="5" t="s">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>360</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44437</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="8">
+        <v>44437</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44437</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44436</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44432</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="G24" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44432</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="I25" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44432</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="F26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44432</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B28" s="3">
         <v>44431</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="F29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B39" s="8">
         <v>44431</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F39" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B40" s="8">
         <v>44431</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F40" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B41" s="8">
         <v>44431</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F41" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I15" r:id="rId1"/>
-    <hyperlink ref="I13" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
-    <hyperlink ref="I12" r:id="rId3"/>
-    <hyperlink ref="I6" r:id="rId4"/>
-    <hyperlink ref="I7" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="I25" r:id="rId1"/>
+    <hyperlink ref="I23" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
+    <hyperlink ref="I22" r:id="rId3"/>
+    <hyperlink ref="I16" r:id="rId4"/>
+    <hyperlink ref="I17" r:id="rId5"/>
+    <hyperlink ref="I14" r:id="rId6"/>
+    <hyperlink ref="I2" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="I6" r:id="rId9"/>
+    <hyperlink ref="I7" r:id="rId10"/>
+    <hyperlink ref="I10" r:id="rId11" location="/progress"/>
+    <hyperlink ref="I11" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1490,7 +1818,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1504,7 +1832,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/秋招投递记录.xlsx
+++ b/src/main/resources/秋招投递记录.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZQF\note\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="135">
   <si>
     <t>公司名称</t>
   </si>
@@ -131,9 +126,6 @@
     <t>预约笔试</t>
   </si>
   <si>
-    <t>9.1 晚 18:00--23:30</t>
-  </si>
-  <si>
     <t>天眼查集团</t>
   </si>
   <si>
@@ -179,9 +171,6 @@
     <t>完成笔试</t>
   </si>
   <si>
-    <t>8.27 晚 20:00--22:00</t>
-  </si>
-  <si>
     <t>VIVO</t>
   </si>
   <si>
@@ -221,9 +210,6 @@
     <t>Java开发工程师(Esop)</t>
   </si>
   <si>
-    <t>8.29 晚17:00--18:30</t>
-  </si>
-  <si>
     <t>阳关保险</t>
   </si>
   <si>
@@ -242,9 +228,6 @@
     <t>招商局金融科技</t>
   </si>
   <si>
-    <t>9.6 下午 15:00--16:30</t>
-  </si>
-  <si>
     <t>Soul</t>
   </si>
   <si>
@@ -401,13 +384,101 @@
   </si>
   <si>
     <t>http://hisense.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.8 19:00--20:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.7 19:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.6 15:00--16:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.27 20:00--22:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.29 17:00--18:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1 18:00--23:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.7 18:00--20:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一轮面试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.9 15:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.15 19:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>浩鲸科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南/南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程集团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>去哪儿网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,7 +521,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +552,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -499,7 +582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -533,10 +616,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -627,7 +716,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I1048575" totalsRowShown="0">
   <autoFilter ref="A1:I1048575"/>
-  <sortState ref="A2:I41">
+  <sortState ref="A2:I44">
     <sortCondition descending="1" ref="B1:B1048575"/>
   </sortState>
   <tableColumns count="9">
@@ -646,7 +735,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -688,7 +777,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -723,7 +812,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -932,27 +1021,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="32.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="87.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="34.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="87.33203125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -981,828 +1069,919 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3">
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3">
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B4" s="3">
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3">
         <v>44442</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3">
         <v>44442</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B7" s="3">
         <v>44442</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="B8" s="3">
         <v>44442</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B9" s="3">
         <v>44442</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B10" s="3">
         <v>44442</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B11" s="3">
         <v>44442</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44442</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44442</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44442</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44440</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44440</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44440</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="B15" s="3">
         <v>44440</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>44438</v>
+        <v>44440</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3">
-        <v>44438</v>
+        <v>44440</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44440</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44438</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44438</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="I20" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B21" s="3">
         <v>44437</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="F21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="3">
-        <v>44437</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
-        <v>360</v>
-      </c>
-      <c r="B20" s="3">
-        <v>44437</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="8">
-        <v>44437</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="B22" s="3">
         <v>44437</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>360</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44437</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="8">
+        <v>44437</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44437</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="3">
-        <v>44436</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="3">
-        <v>44432</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="3">
-        <v>44432</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="I25" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B26" s="3">
-        <v>44432</v>
+        <v>44436</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3">
         <v>44432</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B28" s="3">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="I28" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B29" s="3">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B31" s="3">
         <v>44431</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3">
         <v>44431</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="8">
+        <v>34</v>
+      </c>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="3">
         <v>44431</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="3">
+      <c r="C34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="8">
         <v>44431</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B36" s="3">
         <v>44431</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="8">
         <v>44431</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3">
         <v>44431</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="8">
+      <c r="B44" s="8">
         <v>44431</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I25" r:id="rId1"/>
-    <hyperlink ref="I23" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
-    <hyperlink ref="I22" r:id="rId3"/>
-    <hyperlink ref="I16" r:id="rId4"/>
-    <hyperlink ref="I17" r:id="rId5"/>
-    <hyperlink ref="I14" r:id="rId6"/>
-    <hyperlink ref="I2" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="I6" r:id="rId9"/>
-    <hyperlink ref="I7" r:id="rId10"/>
-    <hyperlink ref="I10" r:id="rId11" location="/progress"/>
-    <hyperlink ref="I11" r:id="rId12"/>
+    <hyperlink ref="I28" r:id="rId1"/>
+    <hyperlink ref="I26" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
+    <hyperlink ref="I25" r:id="rId3"/>
+    <hyperlink ref="I19" r:id="rId4"/>
+    <hyperlink ref="I20" r:id="rId5"/>
+    <hyperlink ref="I17" r:id="rId6"/>
+    <hyperlink ref="I5" r:id="rId7"/>
+    <hyperlink ref="I8" r:id="rId8"/>
+    <hyperlink ref="I9" r:id="rId9"/>
+    <hyperlink ref="I10" r:id="rId10"/>
+    <hyperlink ref="I13" r:id="rId11" location="/progress"/>
+    <hyperlink ref="I14" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
@@ -1818,7 +1997,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1832,7 +2011,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/秋招投递记录.xlsx
+++ b/src/main/resources/秋招投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="154">
   <si>
     <t>公司名称</t>
   </si>
@@ -395,10 +395,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>9.7 19:00--21:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>9.6 15:00--16:30</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -472,6 +468,86 @@
   </si>
   <si>
     <t>北京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试冲突/放弃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间未定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.8 21:00--23:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java研发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.baidu.com/external/baidu/campus.html#/individualCenter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆软软件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅文集团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒生科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hundsun.zhiye.com/Portal/Apply/Index</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +792,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I1048575" totalsRowShown="0">
   <autoFilter ref="A1:I1048575"/>
-  <sortState ref="A2:I44">
+  <sortState ref="A2:I48">
     <sortCondition descending="1" ref="B1:B1048575"/>
   </sortState>
   <tableColumns count="9">
@@ -1021,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1071,922 +1147,1004 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="10" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B3" s="3">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3">
-        <v>44442</v>
+        <v>44446</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="B6" s="3">
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="B7" s="3">
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="B8" s="3">
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B9" s="3">
         <v>44442</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B10" s="3">
         <v>44442</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B11" s="3">
         <v>44442</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B12" s="3">
         <v>44442</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B13" s="3">
         <v>44442</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B14" s="3">
         <v>44442</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>113</v>
+        <v>85</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="B15" s="3">
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="B16" s="3">
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="B17" s="3">
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="10" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="B18" s="3">
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>12</v>
+        <v>111</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3">
-        <v>44438</v>
+        <v>44440</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B20" s="3">
-        <v>44438</v>
+        <v>44440</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="I20" s="10" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3">
-        <v>44437</v>
+        <v>44440</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>119</v>
+        <v>19</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>44437</v>
+        <v>44440</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>360</v>
+      <c r="A23" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B23" s="3">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="8">
-        <v>44437</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44438</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3">
         <v>44437</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="I25" s="10" t="s">
-        <v>44</v>
+      <c r="G25" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B26" s="3">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>48</v>
+      <c r="A27" s="2">
+        <v>360</v>
       </c>
       <c r="B27" s="3">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="3">
-        <v>44432</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="8">
+        <v>44437</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="I28" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>56</v>
+        <v>119</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B30" s="3">
-        <v>44432</v>
+        <v>44436</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>115</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B31" s="3">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B32" s="3">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>118</v>
+        <v>16</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="I32" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B33" s="3">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="3">
+      <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="8">
+        <v>44432</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="3">
         <v>44431</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="E35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B36" s="3">
         <v>44431</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="8">
+      <c r="A37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="3">
         <v>44431</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="E37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B38" s="3">
         <v>44431</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="3">
+      <c r="A39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="8">
         <v>44431</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="E39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B40" s="3">
         <v>44431</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="F41" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B45" s="3">
         <v>44431</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B46" s="8">
         <v>44431</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B47" s="8">
         <v>44431</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B48" s="8">
         <v>44431</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F48" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I28" r:id="rId1"/>
-    <hyperlink ref="I26" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
-    <hyperlink ref="I25" r:id="rId3"/>
-    <hyperlink ref="I19" r:id="rId4"/>
-    <hyperlink ref="I20" r:id="rId5"/>
-    <hyperlink ref="I17" r:id="rId6"/>
-    <hyperlink ref="I5" r:id="rId7"/>
-    <hyperlink ref="I8" r:id="rId8"/>
-    <hyperlink ref="I9" r:id="rId9"/>
-    <hyperlink ref="I10" r:id="rId10"/>
-    <hyperlink ref="I13" r:id="rId11" location="/progress"/>
-    <hyperlink ref="I14" r:id="rId12"/>
+    <hyperlink ref="I32" r:id="rId1"/>
+    <hyperlink ref="I30" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
+    <hyperlink ref="I29" r:id="rId3"/>
+    <hyperlink ref="I23" r:id="rId4"/>
+    <hyperlink ref="I24" r:id="rId5"/>
+    <hyperlink ref="I21" r:id="rId6"/>
+    <hyperlink ref="I9" r:id="rId7"/>
+    <hyperlink ref="I12" r:id="rId8"/>
+    <hyperlink ref="I13" r:id="rId9"/>
+    <hyperlink ref="I14" r:id="rId10"/>
+    <hyperlink ref="I17" r:id="rId11" location="/progress"/>
+    <hyperlink ref="I18" r:id="rId12"/>
+    <hyperlink ref="I2" r:id="rId13" location="/individualCenter"/>
+    <hyperlink ref="I5" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>

--- a/src/main/resources/秋招投递记录.xlsx
+++ b/src/main/resources/秋招投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="154">
   <si>
     <t>公司名称</t>
   </si>
@@ -475,10 +475,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>时间未定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>9.8 21:00--23:00</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -495,10 +491,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>测评</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://talent.baidu.com/external/baidu/campus.html#/individualCenter</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -548,6 +540,14 @@
   </si>
   <si>
     <t>https://hundsun.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10 10:20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1147,79 +1147,85 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3">
         <v>44446</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3" s="3">
         <v>44446</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" s="3">
         <v>44446</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" s="3">
         <v>44446</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1238,9 +1244,7 @@
       <c r="E6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>140</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1528,10 +1532,10 @@
       <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1608,11 +1612,11 @@
       <c r="E24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>136</v>
+      <c r="F24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>31</v>
@@ -1641,7 +1645,7 @@
         <v>118</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/main/resources/秋招投递记录.xlsx
+++ b/src/main/resources/秋招投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="156">
   <si>
     <t>公司名称</t>
   </si>
@@ -547,7 +547,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>待定</t>
+    <t>9.15 11:40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.9 18:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.11 10:40</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1100,7 +1108,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1230,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>151</v>
@@ -1265,6 +1273,9 @@
       <c r="E7" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="F7" s="11" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1400,7 +1411,7 @@
       <c r="F14" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="5" t="s">
         <v>121</v>
       </c>
       <c r="I14" s="10" t="s">
@@ -1612,11 +1623,14 @@
       <c r="E24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>50</v>
+      <c r="F24" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>135</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>31</v>
@@ -1747,11 +1761,14 @@
       <c r="E30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>50</v>
+      <c r="F30" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>115</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>47</v>

--- a/src/main/resources/秋招投递记录.xlsx
+++ b/src/main/resources/秋招投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="160">
   <si>
     <t>公司名称</t>
   </si>
@@ -556,6 +556,22 @@
   </si>
   <si>
     <t>9.11 10:40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10 22:00--23:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14 19:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10 15:20</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1107,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1226,11 +1242,14 @@
       <c r="E5" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>154</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>151</v>
@@ -1293,6 +1312,12 @@
       <c r="E8" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1566,6 +1591,12 @@
       <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="I21" s="10" t="s">
         <v>20</v>
       </c>
@@ -1658,7 +1689,7 @@
       <c r="G25" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1878,11 +1909,14 @@
       <c r="E35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>50</v>
+      <c r="F35" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>61</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/main/resources/秋招投递记录.xlsx
+++ b/src/main/resources/秋招投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="200">
   <si>
     <t>公司名称</t>
   </si>
@@ -387,10 +387,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>测评</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>9.8 19:00--20:30</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -471,10 +467,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>笔试冲突/放弃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>9.8 21:00--23:00</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -543,10 +535,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>9.10 10:20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>9.15 11:40</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -555,23 +543,195 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>9.11 10:40</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>9.10 22:00--23:30</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>待定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>9.14 19:00--21:00</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>9.10 15:20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的集团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.midea.com/schoolOut/apply</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>远景智能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.13 19:00--20:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二轮面试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二面时间待定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约笔试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成测评</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成测评</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二轮面试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.13 11:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.12 14:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银联</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术开发类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鹏汽车</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷家乐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14 19:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试冲突/终止</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烽火通信</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件研发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同花顺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙湖集团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼多多</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>货拉拉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +781,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,6 +824,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -682,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,12 +888,306 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="51">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -799,6 +1259,54 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -816,19 +1324,24 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I1048575" totalsRowShown="0">
   <autoFilter ref="A1:I1048575"/>
-  <sortState ref="A2:I48">
-    <sortCondition descending="1" ref="B1:B1048575"/>
+  <sortState ref="A2:I53">
+    <sortCondition sortBy="cellColor" ref="F2:F53" dxfId="11"/>
+    <sortCondition sortBy="cellColor" ref="F2:F53" dxfId="10"/>
+    <sortCondition sortBy="cellColor" ref="F2:F53" dxfId="9"/>
+    <sortCondition sortBy="cellColor" ref="F2:F53" dxfId="8"/>
+    <sortCondition sortBy="cellColor" ref="F2:F53" dxfId="7"/>
+    <sortCondition descending="1" sortBy="cellColor" ref="F2:F53" dxfId="6"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="公司名称" dataDxfId="8"/>
-    <tableColumn id="2" name="投递时间" dataDxfId="7"/>
-    <tableColumn id="3" name="投递岗位" dataDxfId="6"/>
-    <tableColumn id="10" name="投递渠道" dataDxfId="5"/>
-    <tableColumn id="4" name="工作地点" dataDxfId="4"/>
-    <tableColumn id="9" name="当前进度" dataDxfId="3"/>
-    <tableColumn id="6" name="笔试" dataDxfId="2"/>
-    <tableColumn id="7" name="面试" dataDxfId="1"/>
-    <tableColumn id="8" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" name="公司名称" dataDxfId="44"/>
+    <tableColumn id="2" name="投递时间" dataDxfId="43"/>
+    <tableColumn id="3" name="投递岗位" dataDxfId="42"/>
+    <tableColumn id="10" name="投递渠道" dataDxfId="41"/>
+    <tableColumn id="4" name="工作地点" dataDxfId="40"/>
+    <tableColumn id="9" name="当前进度" dataDxfId="39"/>
+    <tableColumn id="6" name="笔试" dataDxfId="38"/>
+    <tableColumn id="7" name="面试" dataDxfId="37"/>
+    <tableColumn id="8" name="备注" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1121,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1171,731 +1684,746 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3">
-        <v>44446</v>
+        <v>44445</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="10" t="s">
-        <v>139</v>
-      </c>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="B3" s="3">
-        <v>44446</v>
+        <v>44442</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>144</v>
+        <v>108</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3">
-        <v>44446</v>
+        <v>44442</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>140</v>
+        <v>111</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B5" s="3">
-        <v>44446</v>
+        <v>44450</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>151</v>
+        <v>162</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B6" s="3">
         <v>44445</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
-        <v>44445</v>
+        <v>44440</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>113</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B8" s="3">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>158</v>
+        <v>184</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>44442</v>
+        <v>44440</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>86</v>
+        <v>16</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
-        <v>44442</v>
+        <v>44440</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>91</v>
+        <v>19</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3">
-        <v>44442</v>
+        <v>44437</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3">
-        <v>44442</v>
+        <v>44432</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>96</v>
+        <v>49</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3">
-        <v>44442</v>
+        <v>44432</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>99</v>
+        <v>34</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3">
-        <v>44442</v>
+        <v>44431</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>104</v>
+        <v>34</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="3">
         <v>44442</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="12" t="s">
+        <v>119</v>
+      </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="H15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3">
-        <v>44442</v>
+        <v>44436</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>106</v>
+        <v>46</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3">
-        <v>44442</v>
+        <v>44431</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="10" t="s">
-        <v>109</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="B18" s="3">
-        <v>44442</v>
+        <v>44446</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>113</v>
+        <v>148</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3">
-        <v>44440</v>
+        <v>44438</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>122</v>
+        <v>30</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3">
-        <v>44440</v>
+        <v>44437</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="B21" s="3">
-        <v>44440</v>
+        <v>44450</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="B22" s="3">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="B23" s="3">
-        <v>44438</v>
+        <v>44445</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B24" s="3">
-        <v>44438</v>
+        <v>44442</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B25" s="3">
-        <v>44437</v>
+        <v>44442</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B26" s="3">
-        <v>44437</v>
+        <v>44442</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>360</v>
+      <c r="A27" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B27" s="3">
-        <v>44437</v>
+        <v>44442</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="8">
-        <v>44437</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44442</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="B29" s="3">
-        <v>44437</v>
+        <v>44442</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>44</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3">
-        <v>44436</v>
+        <v>44440</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3">
-        <v>44432</v>
+        <v>44438</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>116</v>
+        <v>26</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="I32" s="10" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>54</v>
+      <c r="A33" s="2">
+        <v>360</v>
       </c>
       <c r="B33" s="3">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="8">
+      <c r="A34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="3">
         <v>44432</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" s="1"/>
+      <c r="C34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="I34" s="10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B35" s="3">
         <v>44431</v>
@@ -1907,27 +2435,19 @@
         <v>59</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>159</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B36" s="3">
         <v>44431</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>59</v>
@@ -1935,195 +2455,180 @@
       <c r="E36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B37" s="3">
         <v>44431</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="7"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3">
         <v>44431</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="7"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="8">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="3">
         <v>44431</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="E39" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B40" s="3">
         <v>44431</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="8">
+      <c r="A41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="3">
         <v>44431</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="E41" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="B42" s="3">
-        <v>44431</v>
+        <v>44451</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="B43" s="3">
-        <v>44431</v>
+        <v>44451</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="B44" s="3">
-        <v>44431</v>
+        <v>44451</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B45" s="3">
-        <v>44431</v>
+        <v>44442</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>34</v>
+        <v>106</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="B46" s="8">
-        <v>44431</v>
+        <v>44446</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>68</v>
@@ -2134,19 +2639,19 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="B47" s="8">
-        <v>44431</v>
+        <v>44437</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>68</v>
@@ -2157,49 +2662,241 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="8">
+        <v>44432</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B53" s="8">
         <v>44431</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F53" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44451</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" s="3">
+        <v>44451</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I32" r:id="rId1"/>
-    <hyperlink ref="I30" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
-    <hyperlink ref="I29" r:id="rId3"/>
-    <hyperlink ref="I23" r:id="rId4"/>
-    <hyperlink ref="I24" r:id="rId5"/>
-    <hyperlink ref="I21" r:id="rId6"/>
-    <hyperlink ref="I9" r:id="rId7"/>
-    <hyperlink ref="I12" r:id="rId8"/>
-    <hyperlink ref="I13" r:id="rId9"/>
-    <hyperlink ref="I14" r:id="rId10"/>
-    <hyperlink ref="I17" r:id="rId11" location="/progress"/>
-    <hyperlink ref="I18" r:id="rId12"/>
-    <hyperlink ref="I2" r:id="rId13" location="/individualCenter"/>
-    <hyperlink ref="I5" r:id="rId14"/>
+    <hyperlink ref="I34" r:id="rId1"/>
+    <hyperlink ref="I16" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
+    <hyperlink ref="I11" r:id="rId3"/>
+    <hyperlink ref="I31" r:id="rId4"/>
+    <hyperlink ref="I19" r:id="rId5"/>
+    <hyperlink ref="I10" r:id="rId6"/>
+    <hyperlink ref="I24" r:id="rId7"/>
+    <hyperlink ref="I27" r:id="rId8"/>
+    <hyperlink ref="I28" r:id="rId9"/>
+    <hyperlink ref="I15" r:id="rId10"/>
+    <hyperlink ref="I3" r:id="rId11" location="/progress"/>
+    <hyperlink ref="I4" r:id="rId12"/>
+    <hyperlink ref="I8" r:id="rId13" location="/individualCenter"/>
+    <hyperlink ref="I18" r:id="rId14"/>
+    <hyperlink ref="I21" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>

--- a/src/main/resources/秋招投递记录.xlsx
+++ b/src/main/resources/秋招投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="202">
   <si>
     <t>公司名称</t>
   </si>
@@ -599,10 +599,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>预约笔试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>完成测评</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -732,6 +728,18 @@
   </si>
   <si>
     <t>武汉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.18 10:45</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成笔试</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +899,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -899,7 +907,103 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1324,24 +1428,24 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I1048575" totalsRowShown="0">
   <autoFilter ref="A1:I1048575"/>
-  <sortState ref="A2:I53">
-    <sortCondition sortBy="cellColor" ref="F2:F53" dxfId="11"/>
-    <sortCondition sortBy="cellColor" ref="F2:F53" dxfId="10"/>
-    <sortCondition sortBy="cellColor" ref="F2:F53" dxfId="9"/>
-    <sortCondition sortBy="cellColor" ref="F2:F53" dxfId="8"/>
-    <sortCondition sortBy="cellColor" ref="F2:F53" dxfId="7"/>
-    <sortCondition descending="1" sortBy="cellColor" ref="F2:F53" dxfId="6"/>
+  <sortState ref="A2:I62">
+    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="11"/>
+    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="10"/>
+    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="9"/>
+    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="8"/>
+    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="7"/>
+    <sortCondition descending="1" sortBy="cellColor" ref="F2:F62" dxfId="6"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="公司名称" dataDxfId="44"/>
-    <tableColumn id="2" name="投递时间" dataDxfId="43"/>
-    <tableColumn id="3" name="投递岗位" dataDxfId="42"/>
-    <tableColumn id="10" name="投递渠道" dataDxfId="41"/>
-    <tableColumn id="4" name="工作地点" dataDxfId="40"/>
-    <tableColumn id="9" name="当前进度" dataDxfId="39"/>
-    <tableColumn id="6" name="笔试" dataDxfId="38"/>
-    <tableColumn id="7" name="面试" dataDxfId="37"/>
-    <tableColumn id="8" name="备注" dataDxfId="36"/>
+    <tableColumn id="1" name="公司名称" dataDxfId="56"/>
+    <tableColumn id="2" name="投递时间" dataDxfId="55"/>
+    <tableColumn id="3" name="投递岗位" dataDxfId="54"/>
+    <tableColumn id="10" name="投递渠道" dataDxfId="53"/>
+    <tableColumn id="4" name="工作地点" dataDxfId="52"/>
+    <tableColumn id="9" name="当前进度" dataDxfId="51"/>
+    <tableColumn id="6" name="笔试" dataDxfId="50"/>
+    <tableColumn id="7" name="面试" dataDxfId="49"/>
+    <tableColumn id="8" name="备注" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1637,7 +1741,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1699,7 +1803,7 @@
         <v>128</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1722,7 +1826,7 @@
         <v>108</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>109</v>
@@ -1745,7 +1849,7 @@
         <v>111</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>112</v>
@@ -1753,25 +1857,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B5" s="3">
         <v>44450</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1842,7 +1946,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>137</v>
@@ -1850,124 +1954,124 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="B9" s="3">
-        <v>44440</v>
+        <v>44450</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>44440</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3">
-        <v>44437</v>
+        <v>44440</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="10" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3">
         <v>44432</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1995,189 +2099,194 @@
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
-        <v>44442</v>
+        <v>44432</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>104</v>
-      </c>
+      <c r="G15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B16" s="3">
-        <v>44436</v>
+        <v>44442</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>150</v>
+      <c r="H16" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3">
-        <v>44431</v>
+        <v>44436</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>119</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I17" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="B18" s="3">
-        <v>44446</v>
+        <v>44431</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>169</v>
+        <v>60</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>149</v>
+        <v>61</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="B19" s="3">
-        <v>44438</v>
+        <v>44446</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>171</v>
+        <v>151</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>164</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>165</v>
+        <v>133</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3">
-        <v>44450</v>
+        <v>44437</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>159</v>
+        <v>34</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2544,354 +2653,354 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B42" s="3">
         <v>44451</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B43" s="3">
         <v>44451</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B44" s="3">
         <v>44451</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="B45" s="3">
-        <v>44442</v>
+        <v>44451</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" s="8">
-        <v>44446</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="A46" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="8">
-        <v>44437</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="A47" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="8">
-        <v>44432</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G48" s="1"/>
+      <c r="A48" s="2" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="A49" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44451</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="A50" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="A51" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="A52" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="A53" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="B54" s="3">
-        <v>44451</v>
+        <v>44442</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>188</v>
+        <v>106</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="A55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="8">
+        <v>44446</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="A56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="8">
+        <v>44437</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>191</v>
-      </c>
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="8">
+        <v>44432</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B58" s="3">
-        <v>44451</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="A58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="A59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="A60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="A61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="A62" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I34" r:id="rId1"/>
-    <hyperlink ref="I16" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
-    <hyperlink ref="I11" r:id="rId3"/>
+    <hyperlink ref="I17" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
+    <hyperlink ref="I12" r:id="rId3"/>
     <hyperlink ref="I31" r:id="rId4"/>
-    <hyperlink ref="I19" r:id="rId5"/>
-    <hyperlink ref="I10" r:id="rId6"/>
+    <hyperlink ref="I20" r:id="rId5"/>
+    <hyperlink ref="I11" r:id="rId6"/>
     <hyperlink ref="I24" r:id="rId7"/>
     <hyperlink ref="I27" r:id="rId8"/>
     <hyperlink ref="I28" r:id="rId9"/>
-    <hyperlink ref="I15" r:id="rId10"/>
+    <hyperlink ref="I16" r:id="rId10"/>
     <hyperlink ref="I3" r:id="rId11" location="/progress"/>
     <hyperlink ref="I4" r:id="rId12"/>
     <hyperlink ref="I8" r:id="rId13" location="/individualCenter"/>
-    <hyperlink ref="I18" r:id="rId14"/>
-    <hyperlink ref="I21" r:id="rId15"/>
+    <hyperlink ref="I19" r:id="rId14"/>
+    <hyperlink ref="I5" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>

--- a/src/main/resources/秋招投递记录.xlsx
+++ b/src/main/resources/秋招投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="227">
   <si>
     <t>公司名称</t>
   </si>
@@ -339,10 +339,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>秋招研发工程师及</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>中兴通讯</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -351,10 +347,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://job.zte.com.cn/ZTE.Graduate.Web/CenterPage/Index.aspx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>深信服</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -415,10 +407,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>9.9 15:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>9.15 19:00--21:00</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -535,10 +523,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>9.15 11:40</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>9.9 18:00--21:00</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -587,43 +571,219 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>二轮面试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二面时间待定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成测评</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成测评</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.13 11:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.12 14:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银联</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术开发类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鹏汽车</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷家乐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14 19:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试冲突/终止</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烽火通信</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件研发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同花顺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙湖集团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>货拉拉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.18 10:45</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成笔试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14 16:15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>9.13 19:00--20:30</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>9.15 19:00--20:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成笔试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋招研发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offer 12.5K/27.6k</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>二轮面试</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>二面时间待定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成测评</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成测评</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>二轮面试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.13 11:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.12 14:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银联</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术开发类</t>
+    <t>9.17 9:40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.17 14:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试冲突/终止</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试后测评</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offer 18.5k</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二轮面试/终止</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约笔试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.22 19:00--20:40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约笔试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.18 19:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -631,11 +791,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>全国</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鹏汽车</t>
+    <t>杭州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java工程师-多业务中台</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>满帮集团</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -643,103 +811,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣链科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Moka</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>北京</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>酷家乐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moka</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.14 19:00--21:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔试冲突/终止</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>烽火通信</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件研发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>同花顺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙湖集团</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼多多</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>科大讯飞</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛客网</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>美团</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>快手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>货拉拉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测评</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.18 10:45</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成笔试</t>
+    <t>端点网络科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPPO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>有赞</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -747,7 +847,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,6 +888,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -805,12 +922,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,6 +949,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -856,7 +973,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,16 +995,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -896,10 +1013,22 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -907,7 +1036,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="58">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -919,6 +1048,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFABF8F"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
@@ -967,6 +1104,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFABF8F"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
@@ -1015,6 +1160,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFABF8F"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
@@ -1063,6 +1216,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFABF8F"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
@@ -1111,6 +1272,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFABF8F"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
@@ -1159,95 +1328,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFABF8F"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFABF8F"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00B050"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1368,6 +1449,14 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1426,26 +1515,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I1048575" totalsRowShown="0">
-  <autoFilter ref="A1:I1048575"/>
-  <sortState ref="A2:I62">
-    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="11"/>
-    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="10"/>
-    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="9"/>
-    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="8"/>
-    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="7"/>
-    <sortCondition descending="1" sortBy="cellColor" ref="F2:F62" dxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I1048566" totalsRowShown="0">
+  <autoFilter ref="A1:I1048566"/>
+  <sortState ref="A2:I65">
+    <sortCondition sortBy="cellColor" ref="F2:F65" dxfId="13"/>
+    <sortCondition sortBy="cellColor" ref="F2:F65" dxfId="12"/>
+    <sortCondition sortBy="cellColor" ref="F2:F65" dxfId="11"/>
+    <sortCondition sortBy="cellColor" ref="F2:F65" dxfId="10"/>
+    <sortCondition sortBy="cellColor" ref="F2:F65" dxfId="9"/>
+    <sortCondition sortBy="cellColor" ref="F2:F65" dxfId="8"/>
+    <sortCondition descending="1" sortBy="cellColor" ref="F2:F65" dxfId="7"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="公司名称" dataDxfId="56"/>
-    <tableColumn id="2" name="投递时间" dataDxfId="55"/>
-    <tableColumn id="3" name="投递岗位" dataDxfId="54"/>
-    <tableColumn id="10" name="投递渠道" dataDxfId="53"/>
-    <tableColumn id="4" name="工作地点" dataDxfId="52"/>
-    <tableColumn id="9" name="当前进度" dataDxfId="51"/>
-    <tableColumn id="6" name="笔试" dataDxfId="50"/>
-    <tableColumn id="7" name="面试" dataDxfId="49"/>
-    <tableColumn id="8" name="备注" dataDxfId="48"/>
+    <tableColumn id="1" name="公司名称" dataDxfId="50"/>
+    <tableColumn id="2" name="投递时间" dataDxfId="49"/>
+    <tableColumn id="3" name="投递岗位" dataDxfId="48"/>
+    <tableColumn id="10" name="投递渠道" dataDxfId="47"/>
+    <tableColumn id="4" name="工作地点" dataDxfId="46"/>
+    <tableColumn id="9" name="当前进度" dataDxfId="45"/>
+    <tableColumn id="6" name="笔试" dataDxfId="44"/>
+    <tableColumn id="7" name="面试" dataDxfId="43"/>
+    <tableColumn id="8" name="备注" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1738,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1788,22 +1878,22 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3">
         <v>44445</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>166</v>
+        <v>125</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1811,30 +1901,30 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" s="3">
         <v>44442</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" s="3">
         <v>44442</v>
@@ -1846,338 +1936,337 @@
         <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B5" s="3">
         <v>44450</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3">
-        <v>44445</v>
+        <v>44442</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="B7" s="3">
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>121</v>
+        <v>211</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B8" s="3">
-        <v>44446</v>
+        <v>44445</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>137</v>
+      <c r="G8" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B9" s="3">
-        <v>44450</v>
+        <v>44446</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>163</v>
+        <v>177</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="B10" s="3">
-        <v>44440</v>
+        <v>44450</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3">
         <v>44440</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3">
-        <v>44437</v>
+        <v>44440</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>44</v>
+        <v>148</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B14" s="3">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>119</v>
+      <c r="F15" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>200</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3">
-        <v>44442</v>
+        <v>44440</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>104</v>
+        <v>12</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3">
-        <v>44436</v>
+        <v>44432</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>119</v>
+        <v>34</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>47</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -2195,72 +2284,66 @@
       <c r="E18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>119</v>
+      <c r="F18" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="B19" s="3">
-        <v>44446</v>
+        <v>44442</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>149</v>
+        <v>85</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B20" s="3">
-        <v>44438</v>
+        <v>44436</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>164</v>
+        <v>46</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>31</v>
+        <v>112</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2279,14 +2362,14 @@
       <c r="E21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>164</v>
+      <c r="F21" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>165</v>
+        <v>115</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2300,245 +2383,263 @@
         <v>144</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>138</v>
+      <c r="F22" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3">
-        <v>44445</v>
+        <v>44438</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>125</v>
+        <v>30</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="B24" s="3">
-        <v>44442</v>
+        <v>44446</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="B25" s="3">
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B26" s="3">
         <v>44442</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="I26" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B27" s="3">
         <v>44442</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B28" s="3">
         <v>44442</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3">
-        <v>44442</v>
+        <v>44440</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3">
-        <v>44440</v>
+        <v>44438</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>36</v>
+      <c r="A32" s="2">
+        <v>360</v>
       </c>
       <c r="B32" s="3">
         <v>44437</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>360</v>
+      <c r="A33" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B33" s="3">
-        <v>44437</v>
+        <v>44432</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F33" s="6"/>
+      <c r="I33" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B34" s="3">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="I34" s="10" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B35" s="3">
         <v>44431</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>59</v>
@@ -2546,301 +2647,398 @@
       <c r="E35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B36" s="3">
         <v>44431</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="7"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B37" s="3">
         <v>44431</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B38" s="3">
         <v>44431</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="B39" s="3">
-        <v>44431</v>
+        <v>44451</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="B40" s="3">
-        <v>44431</v>
+        <v>44451</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="B41" s="3">
-        <v>44431</v>
+        <v>44451</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B42" s="3">
         <v>44451</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I42" s="10"/>
+        <v>181</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B43" s="3">
-        <v>44451</v>
+        <v>44456</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B44" s="3">
-        <v>44451</v>
+        <v>44456</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B45" s="3">
         <v>44451</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>189</v>
+        <v>217</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>190</v>
+        <v>220</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="7">
+        <v>44442</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B49" s="3">
-        <v>44451</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="7">
+        <v>44431</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="7">
+        <v>44431</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G54" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="3">
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="7">
         <v>44442</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="8">
-        <v>44446</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="8">
-        <v>44437</v>
+        <v>136</v>
+      </c>
+      <c r="B56" s="7">
+        <v>44446</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>68</v>
       </c>
       <c r="G56" s="1"/>
@@ -2849,53 +3047,53 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="8">
-        <v>44432</v>
+        <v>39</v>
+      </c>
+      <c r="B57" s="7">
+        <v>44437</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>184</v>
+        <v>41</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="8">
-        <v>44431</v>
+        <v>57</v>
+      </c>
+      <c r="B58" s="7">
+        <v>44432</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>68</v>
+        <v>34</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="8">
+        <v>67</v>
+      </c>
+      <c r="B59" s="7">
         <v>44431</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2905,9 +3103,9 @@
         <v>59</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F59" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>68</v>
       </c>
       <c r="G59" s="1"/>
@@ -2916,21 +3114,21 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="8">
+        <v>70</v>
+      </c>
+      <c r="B60" s="7">
         <v>44431</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>68</v>
       </c>
       <c r="G60" s="1"/>
@@ -2939,21 +3137,21 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="8">
+        <v>79</v>
+      </c>
+      <c r="B61" s="7">
         <v>44431</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F61" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>68</v>
       </c>
       <c r="G61" s="1"/>
@@ -2962,50 +3160,72 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="8">
+        <v>80</v>
+      </c>
+      <c r="B62" s="7">
         <v>44431</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>68</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="7">
+        <v>44431</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I34" r:id="rId1"/>
-    <hyperlink ref="I17" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
-    <hyperlink ref="I12" r:id="rId3"/>
-    <hyperlink ref="I31" r:id="rId4"/>
-    <hyperlink ref="I20" r:id="rId5"/>
-    <hyperlink ref="I11" r:id="rId6"/>
-    <hyperlink ref="I24" r:id="rId7"/>
-    <hyperlink ref="I27" r:id="rId8"/>
-    <hyperlink ref="I28" r:id="rId9"/>
-    <hyperlink ref="I16" r:id="rId10"/>
-    <hyperlink ref="I3" r:id="rId11" location="/progress"/>
-    <hyperlink ref="I4" r:id="rId12"/>
-    <hyperlink ref="I8" r:id="rId13" location="/individualCenter"/>
-    <hyperlink ref="I19" r:id="rId14"/>
-    <hyperlink ref="I5" r:id="rId15"/>
+    <hyperlink ref="I33" r:id="rId1"/>
+    <hyperlink ref="I20" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
+    <hyperlink ref="I13" r:id="rId3"/>
+    <hyperlink ref="I30" r:id="rId4"/>
+    <hyperlink ref="I23" r:id="rId5"/>
+    <hyperlink ref="I12" r:id="rId6"/>
+    <hyperlink ref="I26" r:id="rId7"/>
+    <hyperlink ref="I6" r:id="rId8"/>
+    <hyperlink ref="I7" r:id="rId9"/>
+    <hyperlink ref="I3" r:id="rId10" location="/progress"/>
+    <hyperlink ref="I4" r:id="rId11"/>
+    <hyperlink ref="I9" r:id="rId12" location="/individualCenter"/>
+    <hyperlink ref="I22" r:id="rId13"/>
+    <hyperlink ref="I5" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
